--- a/costos.xlsx
+++ b/costos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents\GitHub\PresConsult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\PresConsult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEAF832-0D07-4088-9085-D59EA45B49A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7CFE11B6-AD51-42C9-A420-0F305084184A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,29 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Costo</t>
   </si>
   <si>
-    <t>Metodos estadisticos</t>
-  </si>
-  <si>
     <t>Recursos para operación</t>
   </si>
   <si>
     <t>Depuracion de base de datos</t>
   </si>
   <si>
-    <t>Analisis inferencial</t>
-  </si>
-  <si>
-    <t>Analisis descriptivo</t>
-  </si>
-  <si>
-    <t>Pruebas de Hipotesis</t>
-  </si>
-  <si>
     <t>Procesamiento de resultados</t>
   </si>
   <si>
@@ -63,49 +50,58 @@
     <t>Papeleria</t>
   </si>
   <si>
-    <t>Servicios de informacion</t>
-  </si>
-  <si>
-    <t>Viaticos (trasporte)</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Precio/hora (7000)</t>
-  </si>
-  <si>
-    <t>tiempo de entrega del proyecto</t>
-  </si>
-  <si>
     <t>Horas  trabajadas por persona</t>
   </si>
   <si>
     <t>1 meses</t>
   </si>
   <si>
-    <t>horas semanales</t>
-  </si>
-  <si>
-    <t>100 horas</t>
-  </si>
-  <si>
-    <t>25 horas</t>
-  </si>
-  <si>
-    <t>total de horas (100 horas por persona)</t>
-  </si>
-  <si>
-    <t>Costo total</t>
-  </si>
-  <si>
-    <t>300 horas</t>
+    <t>Precio/hora (25000)</t>
+  </si>
+  <si>
+    <t>8 horas</t>
+  </si>
+  <si>
+    <t>32 horas</t>
+  </si>
+  <si>
+    <t>96 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de horas </t>
+  </si>
+  <si>
+    <t>Servicios de información</t>
+  </si>
+  <si>
+    <t>Análisis descriptivo</t>
+  </si>
+  <si>
+    <t>Análisis inferencial</t>
+  </si>
+  <si>
+    <t>Pruebas de Hipótesis</t>
+  </si>
+  <si>
+    <t>Métodos estadísticos</t>
+  </si>
+  <si>
+    <t>Viáticos (transporte)</t>
+  </si>
+  <si>
+    <t>Horas semanales</t>
+  </si>
+  <si>
+    <t>Tiempo de entrega del proyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,7 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7F9351-B58C-49B4-8644-A6798D2657DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -630,142 +625,142 @@
   <sheetData>
     <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
         <v>210000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
         <v>250000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
         <v>400000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>300000</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
-        <v>300000</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2100000</v>
+      <c r="I8" s="7">
+        <v>2400000</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
         <v>90000</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
         <v>100000</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8">
         <v>70000</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
         <v>200000</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
         <v>180000</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11">
         <f>SUM(D5:D14)</f>
         <v>1800000</v>
       </c>
@@ -776,6 +771,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>